--- a/Check.xlsx
+++ b/Check.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="45">
   <si>
     <t>Группа проверок</t>
   </si>
@@ -94,6 +94,9 @@
     <t>Фильтрация заявок</t>
   </si>
   <si>
+    <t>Добавление заявки с некорректным вренемем</t>
+  </si>
+  <si>
     <t>Редактирование заявки</t>
   </si>
   <si>
@@ -122,6 +125,9 @@
   </si>
   <si>
     <t>Дабавление новости</t>
+  </si>
+  <si>
+    <t>Добавление новости с некорректным временем</t>
   </si>
   <si>
     <t>Редактирование новости</t>
@@ -751,7 +757,7 @@
         <v>28</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="D19" s="7" t="s">
         <v>3</v>
@@ -760,17 +766,17 @@
     <row r="20">
       <c r="A20" s="8"/>
       <c r="B20" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" s="7" t="s">
         <v>30</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>6</v>
       </c>
       <c r="D20" s="7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="9"/>
+      <c r="A21" s="8"/>
       <c r="B21" s="6" t="s">
         <v>31</v>
       </c>
@@ -782,26 +788,26 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="5" t="s">
+      <c r="A22" s="9"/>
+      <c r="B22" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B22" s="6" t="s">
-        <v>33</v>
-      </c>
       <c r="C22" s="7" t="s">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="D22" s="7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="8"/>
+      <c r="A23" s="5" t="s">
+        <v>33</v>
+      </c>
       <c r="B23" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23" s="7" t="s">
         <v>35</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>6</v>
       </c>
       <c r="D23" s="7" t="s">
         <v>3</v>
@@ -820,7 +826,7 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="9"/>
+      <c r="A25" s="8"/>
       <c r="B25" s="6" t="s">
         <v>37</v>
       </c>
@@ -832,11 +838,9 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="5" t="s">
+      <c r="A26" s="8"/>
+      <c r="B26" s="6" t="s">
         <v>38</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>39</v>
       </c>
       <c r="C26" s="7" t="s">
         <v>6</v>
@@ -848,7 +852,7 @@
     <row r="27">
       <c r="A27" s="9"/>
       <c r="B27" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C27" s="7" t="s">
         <v>6</v>
@@ -858,11 +862,11 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="6" t="s">
+      <c r="A28" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B28" s="6" t="s">
         <v>41</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>42</v>
       </c>
       <c r="C28" s="7" t="s">
         <v>6</v>
@@ -872,16 +876,30 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="12"/>
-      <c r="B29" s="12"/>
-      <c r="C29" s="13"/>
-      <c r="D29" s="13"/>
+      <c r="A29" s="9"/>
+      <c r="B29" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="30">
-      <c r="A30" s="12"/>
-      <c r="B30" s="12"/>
-      <c r="C30" s="13"/>
-      <c r="D30" s="13"/>
+      <c r="A30" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="12"/>
@@ -6721,15 +6739,27 @@
       <c r="C1003" s="13"/>
       <c r="D1003" s="13"/>
     </row>
+    <row r="1004">
+      <c r="A1004" s="12"/>
+      <c r="B1004" s="12"/>
+      <c r="C1004" s="13"/>
+      <c r="D1004" s="13"/>
+    </row>
+    <row r="1005">
+      <c r="A1005" s="12"/>
+      <c r="B1005" s="12"/>
+      <c r="C1005" s="13"/>
+      <c r="D1005" s="13"/>
+    </row>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="A2:A7"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A10:A12"/>
-    <mergeCell ref="A16:A21"/>
-    <mergeCell ref="A22:A25"/>
     <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="A23:A27"/>
+    <mergeCell ref="A16:A22"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
